--- a/va_facility_data_2025-02-20/Grayling VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grayling%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Grayling VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Grayling%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R3bd1bc8bf2c14ddd925d35ac848a4465"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1fca455c473e4fd98cd89a1906a9ff43"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R28798036ce0e4a249b34c976c27eaf7e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rf41a7c192a3f42188ddbb26595a6f60d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R5c904285390640feaa1fac9f08a42988"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf66edbfa662141e1b51028507a21d087"/>
   </x:sheets>
 </x:workbook>
 </file>
